--- a/AuraInventarioProto/Format/Usuarios.xlsx
+++ b/AuraInventarioProto/Format/Usuarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROPUESTA-3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PROPUESTA-3\Source\Repos\AuraInventarioProto\AuraInventarioProto\Format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>RUT</t>
   </si>
@@ -39,13 +39,40 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>11111111-1</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>aura@aura.cl</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>22222222-2</t>
+  </si>
+  <si>
+    <t>aura2@aura.cl</t>
+  </si>
+  <si>
+    <t>O175</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,13 +80,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,32 +409,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>